--- a/documents/Test Cases.xlsx
+++ b/documents/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\QA QM\Test-Automation\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD4B67D-317F-4676-AF4F-3FF1B46AB00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4655BE98-0FBA-4EF9-842A-9DBFAEDA4FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A899AC16-4E33-4064-AD81-6AB461C850EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>Project Name:</t>
   </si>
@@ -116,12 +116,6 @@
     <t>#T004</t>
   </si>
   <si>
-    <t>User must logging to the system without any errors and view Reports</t>
-  </si>
-  <si>
-    <t>Click Reports</t>
-  </si>
-  <si>
     <t>#T005</t>
   </si>
   <si>
@@ -167,10 +161,40 @@
     <t xml:space="preserve">Logging to the System with incorrect username </t>
   </si>
   <si>
-    <t>Logging to the System with Correct username and password and view Repoerts</t>
-  </si>
-  <si>
     <t>Logging to the System with Correct username and password and view Users</t>
+  </si>
+  <si>
+    <t>Click Users</t>
+  </si>
+  <si>
+    <t>Logging to the System with Correct username and password and view Tasks</t>
+  </si>
+  <si>
+    <t>Click Tasks</t>
+  </si>
+  <si>
+    <t>User must logging to the system without any errors and view Tasks</t>
+  </si>
+  <si>
+    <t>#T006</t>
+  </si>
+  <si>
+    <t>Logging to the System with Correct username and password and goto Schedule Page</t>
+  </si>
+  <si>
+    <t>The user should be able to logging to the system with correct user name and password and visit schedule page</t>
+  </si>
+  <si>
+    <t>Click Switch ti actiTime</t>
+  </si>
+  <si>
+    <t>User must logging to the system without any errors and view Users</t>
+  </si>
+  <si>
+    <t>User must logging to the system without any errors and view users</t>
+  </si>
+  <si>
+    <t>User must logging to the system without any errors and view Schedule page</t>
   </si>
 </sst>
 </file>
@@ -621,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4239690B-2B71-454F-8216-7DB19BB7D9ED}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -683,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -734,16 +758,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>18</v>
@@ -760,10 +784,10 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
@@ -774,7 +798,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
@@ -808,16 +832,16 @@
         <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
@@ -834,10 +858,10 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
@@ -848,7 +872,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -885,13 +909,13 @@
         <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>22</v>
@@ -908,10 +932,10 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="6"/>
@@ -922,7 +946,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
@@ -959,19 +983,19 @@
         <v>43</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>19</v>
@@ -982,10 +1006,10 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -996,7 +1020,7 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="6"/>
@@ -1020,7 +1044,7 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="6"/>
@@ -1059,25 +1083,25 @@
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>19</v>
@@ -1088,10 +1112,10 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="6"/>
@@ -1102,7 +1126,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
@@ -1121,6 +1145,80 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
